--- a/Data/EC/NIT-9014594002.xlsx
+++ b/Data/EC/NIT-9014594002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EBB289-8B75-457F-B6D8-76190EC552C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADDD1FB-3BB4-441F-9B67-027D80175553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D51E9C89-CF5C-464A-969D-D5E9184B8A5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2CFAD0B-0E3C-4083-9F07-4EE7A4846707}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,151 +71,148 @@
     <t>EVA SANDRITH GARCIA TERAN</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1010069990</t>
-  </si>
-  <si>
-    <t>KATTY YULIETH FONSECA ACOSTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -629,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49EB0E3-32C0-E5C3-D66D-10E03423BA80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C7687E-7970-1CC9-1D66-354FD9920943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354CAA1-15F0-43FF-9E8E-0DD7A1125C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AAC59-4391-498A-ADE4-DD7DF7EDF9AB}">
   <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -992,7 +989,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1005,7 +1002,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1047,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1079,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1764967</v>
+        <v>1744368</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,17 +1095,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1135,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2230,19 +2227,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="F63" s="24">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="24">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
@@ -2250,22 +2247,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="32"/>
       <c r="H68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="32"/>
       <c r="H69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>

--- a/Data/EC/NIT-9014594002.xlsx
+++ b/Data/EC/NIT-9014594002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADDD1FB-3BB4-441F-9B67-027D80175553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AF5006-5B0C-4E45-A17A-171E93295A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2CFAD0B-0E3C-4083-9F07-4EE7A4846707}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB98A917-4337-45F8-BBFE-A8EAA4B7B185}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,148 +71,130 @@
     <t>EVA SANDRITH GARCIA TERAN</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -311,7 +293,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,9 +308,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -526,23 +508,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +552,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C7687E-7970-1CC9-1D66-354FD9920943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059A1B6B-BE2D-AA5F-1846-2F9FAD8CD13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AAC59-4391-498A-ADE4-DD7DF7EDF9AB}">
-  <dimension ref="B2:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF58204-FDF9-4A4E-8EBF-C607CF4B84CC}">
+  <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1002,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1047,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1079,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1744368</v>
+        <v>1526322</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1095,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1132,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2085,194 +2067,56 @@
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="B57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G57" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G58" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G59" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G60" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G61" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F57" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G57" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G62" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="B62" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="H62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G63" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B63" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="H63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H62:J62"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
